--- a/biology/Botanique/Chosenia/Chosenia.xlsx
+++ b/biology/Botanique/Chosenia/Chosenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chosenia est un genre de plantes à fleurs de la famille des Salicaceae. Ce sont des arbres ou des arbustes originaires d'Extrême-Orient russe, du Nord de la Chine, de Corée et du Japon.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est décrit en premier par le botaniste japonais Takenoshin Nakai en 1920, dans (en) Botanical Magazine. [Shokubutsu-gaku zasshi], vol. 34, Tokyo (lire en ligne), p. 66[1],[2].
-Selon Plants of the World online (POWO)                (16 mars 2021)[2] et GRIN            (16 mars 2021)[3], Chosenia n'est pas correct et est synonyme de Salix, le genre des Saules.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est décrit en premier par le botaniste japonais Takenoshin Nakai en 1920, dans (en) Botanical Magazine. [Shokubutsu-gaku zasshi], vol. 34, Tokyo (lire en ligne), p. 66,.
+Selon Plants of the World online (POWO)                (16 mars 2021) et GRIN            (16 mars 2021), Chosenia n'est pas correct et est synonyme de Salix, le genre des Saules.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbres à feuilles caduques. Le bourgeon terminal est absent ; les bourgeons n'ont qu'une seule écaille. Les feuilles sont alternes, sans stipule ; le pétiole est court ; les deux surfaces du limbe foliaire sont uniformément colorées[4].
-La floraison est précoce ; le chaton mâle est penduleux ; le chaton femelle est dressé ou ascendant ; les bractées sont entières. Les fleurs sont anémophiles, sans périanthe ni glande à la base. Les fleurs mâle présentent cinq étamines, glabres, plus courtes que les bractées ; les filaments adnés à la base des bractées. Les fleurs femelle ont l'ovaire glabre, à une seule loge, à quatre ovules, brièvement stipendié. Deux styles, distincts, sont chacun divisé d'environ de moitié en deux stigmates. Le fruit est une capsule à deux valves. Les graines sont ex-albuminées[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres à feuilles caduques. Le bourgeon terminal est absent ; les bourgeons n'ont qu'une seule écaille. Les feuilles sont alternes, sans stipule ; le pétiole est court ; les deux surfaces du limbe foliaire sont uniformément colorées.
+La floraison est précoce ; le chaton mâle est penduleux ; le chaton femelle est dressé ou ascendant ; les bractées sont entières. Les fleurs sont anémophiles, sans périanthe ni glande à la base. Les fleurs mâle présentent cinq étamines, glabres, plus courtes que les bractées ; les filaments adnés à la base des bractées. Les fleurs femelle ont l'ovaire glabre, à une seule loge, à quatre ovules, brièvement stipendié. Deux styles, distincts, sont chacun divisé d'environ de moitié en deux stigmates. Le fruit est une capsule à deux valves. Les graines sont ex-albuminées.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la WCVP, aucun des noms qui suivent n'est correct[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la WCVP, aucun des noms qui suivent n'est correct :
 Chosenia arbutifolia (Pall.) A.K.Skvortsov
 Chosenia bracteosa (Turcz. ex Trautv. &amp; C.A.Mey.) Nakai
 Chosenia cardiophylla (Trautv. &amp; C.A.Mey.) N.Chao
@@ -587,7 +605,7 @@
 Chosenia maximoviczii (Kom.) N.Chao
 Chosenia splendida (Nakai) Nakai
 Chosenia urbaniana (Seemen) N.Chao
-Selon Catalogue of Life                                   (16 mars 2021)[1], les noms qui suivent sont corrects :
+Selon Catalogue of Life                                   (16 mars 2021), les noms qui suivent sont corrects :
 Chosenia arbutifolia (Pall.) A. K. Skvortsov
 Chosenia cardiophylla (Trautv. &amp; C. A. Mey.) N. Chao
 Chosenia maximowiczii (Kom.) N. Chao
